--- a/SuperCap Calcs.xlsx
+++ b/SuperCap Calcs.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\ProjectsGit\BikeGenerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/rick_barrett_utas_edu_au/Documents/Documents/GitHub/BikeGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F9FA052-8C48-4031-9C15-120C516827F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2F9FA052-8C48-4031-9C15-120C516827F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{853F0356-2721-4EE6-9D94-327BBBCF0D4F}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="2265" windowWidth="28800" windowHeight="15315" xr2:uid="{580F5817-9C72-4873-8C1D-C1AC5EF248B9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{580F5817-9C72-4873-8C1D-C1AC5EF248B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -459,7 +458,7 @@
   <dimension ref="A2:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +521,7 @@
         <v>0.35</v>
       </c>
       <c r="C5" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D5" s="1">
         <v>13</v>
@@ -532,30 +531,30 @@
       </c>
       <c r="F5" s="2">
         <f>0.5*D5*D5*C5</f>
-        <v>42.25</v>
+        <v>27.885000000000002</v>
       </c>
       <c r="G5" s="2">
         <f>0.5*C5*E5*E5</f>
-        <v>10.5625</v>
+        <v>6.9712500000000004</v>
       </c>
       <c r="H5" s="2">
         <f>F5-G5</f>
-        <v>31.6875</v>
+        <v>20.91375</v>
       </c>
       <c r="I5" s="2">
         <v>0.75</v>
       </c>
       <c r="J5" s="2">
         <f>H5*I5</f>
-        <v>23.765625</v>
+        <v>15.6853125</v>
       </c>
       <c r="K5" s="2">
         <f>J5/E5</f>
-        <v>3.65625</v>
+        <v>2.413125</v>
       </c>
       <c r="L5" s="2">
         <f>K5/B5</f>
-        <v>10.446428571428573</v>
+        <v>6.8946428571428573</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -594,7 +593,7 @@
       </c>
       <c r="C8" s="2">
         <f>C5</f>
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D8" s="2">
         <f>D5</f>
@@ -605,28 +604,28 @@
       </c>
       <c r="F8" s="2">
         <f>0.5*D8*D8*C8</f>
-        <v>42.25</v>
+        <v>27.885000000000002</v>
       </c>
       <c r="G8" s="2">
         <f>0.5*C8*E8*E8</f>
-        <v>6.25</v>
+        <v>4.125</v>
       </c>
       <c r="H8" s="2">
         <f>F8-G8</f>
-        <v>36</v>
+        <v>23.76</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
         <f>G8</f>
-        <v>6.25</v>
+        <v>4.125</v>
       </c>
       <c r="K8" s="2">
         <f>J8/E8</f>
-        <v>1.25</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="L8" s="2">
         <f>K8/B8</f>
-        <v>3.5714285714285716</v>
+        <v>2.3571428571428572</v>
       </c>
     </row>
   </sheetData>
